--- a/examples/excel/monster.xlsx
+++ b/examples/excel/monster.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SimpleConfig" sheetId="2" r:id="rId1"/>
     <sheet name="NestedConfig" sheetId="1" r:id="rId2"/>
+    <sheet name="ItemConfig" sheetId="3" r:id="rId3"/>
+    <sheet name="RewardConfig" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="31">
   <si>
     <t>##name</t>
   </si>
@@ -81,6 +83,33 @@
   </si>
   <si>
     <t>Param]</t>
+  </si>
+  <si>
+    <t>Param2[]</t>
+  </si>
+  <si>
+    <t>[1,2,3]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>##validator</t>
+  </si>
+  <si>
+    <t>砍鸡小刀</t>
+  </si>
+  <si>
+    <t>布衣一件</t>
+  </si>
+  <si>
+    <t>ref=ItemConfig.Id</t>
+  </si>
+  <si>
+    <t>首冲礼包</t>
+  </si>
+  <si>
+    <t>每日礼包</t>
   </si>
 </sst>
 </file>
@@ -1131,10 +1160,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1150,7 +1179,7 @@
     <col min="13" max="13" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1193,8 +1222,11 @@
       <c r="N1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1235,6 +1267,9 @@
         <v>8</v>
       </c>
       <c r="N2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1243,7 +1278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:15">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1283,8 +1318,11 @@
       <c r="N4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:13">
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1314,6 +1352,196 @@
       </c>
       <c r="M5">
         <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5">
+        <v>1001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6">
+        <v>1002</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="5.375" customWidth="1"/>
+    <col min="6" max="6" width="8.375" customWidth="1"/>
+    <col min="7" max="7" width="6.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>1001</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>1002</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>1001</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/examples/excel/monster.xlsx
+++ b/examples/excel/monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SimpleConfig" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="32">
   <si>
     <t>##name</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>ref=ItemConfig.Id</t>
+  </si>
+  <si>
+    <t>range=[1,100]</t>
   </si>
   <si>
     <t>首冲礼包</t>
@@ -1162,7 +1165,7 @@
   <sheetPr/>
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -1437,16 +1440,17 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
     <col min="3" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="4" width="19.375" customWidth="1"/>
-    <col min="5" max="5" width="5.375" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
     <col min="6" max="6" width="8.375" customWidth="1"/>
     <col min="7" max="7" width="6.375" customWidth="1"/>
   </cols>
@@ -1502,12 +1506,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>25</v>
       </c>
+      <c r="B4"/>
       <c r="D4" t="s">
         <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1515,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>1001</v>
@@ -1535,7 +1543,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>1001</v>

--- a/examples/excel/monster.xlsx
+++ b/examples/excel/monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SimpleConfig" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="42">
   <si>
     <t>##name</t>
   </si>
@@ -86,6 +86,36 @@
   </si>
   <si>
     <t>Param2[]</t>
+  </si>
+  <si>
+    <t>TargetSelectChance{Items[{Chance</t>
+  </si>
+  <si>
+    <t>Id}</t>
+  </si>
+  <si>
+    <t>{Chance</t>
+  </si>
+  <si>
+    <t>Id}]}</t>
+  </si>
+  <si>
+    <t>选择类型配置 几率1</t>
+  </si>
+  <si>
+    <t>id1</t>
+  </si>
+  <si>
+    <t>几率2</t>
+  </si>
+  <si>
+    <t>id2</t>
+  </si>
+  <si>
+    <t>几率3</t>
+  </si>
+  <si>
+    <t>id3</t>
   </si>
   <si>
     <t>[1,2,3]</t>
@@ -1163,10 +1193,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1180,9 +1210,11 @@
     <col min="11" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="7.375" customWidth="1"/>
     <col min="13" max="13" width="6.375" customWidth="1"/>
+    <col min="16" max="16" width="36" customWidth="1"/>
+    <col min="21" max="21" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1228,8 +1260,26 @@
       <c r="O1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1275,13 +1325,49 @@
       <c r="O2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="P2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:15">
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1322,10 +1408,28 @@
         <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15">
+        <v>33</v>
+      </c>
+      <c r="P4">
+        <v>20</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>40</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>40</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1357,7 +1461,25 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="P5">
+        <v>20</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>40</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>40</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1532,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -1418,7 +1540,7 @@
         <v>1001</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -1426,7 +1548,7 @@
         <v>1002</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1440,7 +1562,7 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -1508,14 +1630,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4"/>
+        <v>35</v>
+      </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1523,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>1001</v>
@@ -1543,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>1001</v>

--- a/examples/excel/monster.xlsx
+++ b/examples/excel/monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SimpleConfig" sheetId="2" r:id="rId1"/>
@@ -1195,7 +1195,7 @@
   <sheetPr/>
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -1562,8 +1562,8 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1647,13 +1647,13 @@
         <v>40</v>
       </c>
       <c r="D5">
-        <v>1001</v>
+        <v>1000001</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="F5">
-        <v>1002</v>
+        <v>1000002</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -1667,7 +1667,7 @@
         <v>41</v>
       </c>
       <c r="D6">
-        <v>1001</v>
+        <v>1000002</v>
       </c>
       <c r="E6">
         <v>10</v>
